--- a/assets/templates/RS0007-template.a205.xlsx
+++ b/assets/templates/RS0007-template.a205.xlsx
@@ -833,7 +833,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0007-template.a205.xlsx
+++ b/assets/templates/RS0007-template.a205.xlsx
@@ -306,6 +306,21 @@
     </comment>
     <comment ref="A21" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
@@ -337,6 +352,11 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Efficiency of drive</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -632,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ21"/>
+  <dimension ref="A1:AZ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,7 +853,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1028,17 +1048,58 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
           <t>performance.performance_map</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1046,15 +1107,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"V_BELT,COGGED_BELT,SYNCHRONOUS_BELT,GEAR,CHAIN"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1198,6 +1259,7 @@
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="C2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -1210,6 +1272,11 @@
           <t>efficiency</t>
         </is>
       </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1218,6 +1285,11 @@
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1226,10 +1298,12 @@
     <row r="5">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
